--- a/code/java-web-demo/src/test/resources/Data11.xlsx
+++ b/code/java-web-demo/src/test/resources/Data11.xlsx
@@ -5,38 +5,39 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GitHub\CoderDreamUtil\common-util\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GitHub\java-web-demo\code\java-web-demo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655"/>
   </bookViews>
   <sheets>
-    <sheet name="T_Users" sheetId="4" r:id="rId1"/>
-    <sheet name="PDRC_TM" sheetId="2" r:id="rId2"/>
-    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId3"/>
-    <sheet name="PDRC_RM" sheetId="1" r:id="rId4"/>
-    <sheet name="PDRC_PDM" sheetId="11" r:id="rId5"/>
-    <sheet name="PDRC_PGM" sheetId="10" r:id="rId6"/>
-    <sheet name="PDRC_PM" sheetId="9" r:id="rId7"/>
-    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId8"/>
-    <sheet name="ISBG_Project" sheetId="6" r:id="rId9"/>
-    <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId10"/>
-    <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId11"/>
-    <sheet name="PDRC_BSM_Dispatch" sheetId="12" r:id="rId12"/>
-    <sheet name="PDRC_B_ENPPRIZE" sheetId="14" r:id="rId13"/>
-    <sheet name="UsersTM_RM" sheetId="8" r:id="rId14"/>
+    <sheet name="T_MenuInfo" sheetId="16" r:id="rId1"/>
+    <sheet name="T_Users" sheetId="4" r:id="rId2"/>
+    <sheet name="PDRC_TM" sheetId="2" r:id="rId3"/>
+    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId4"/>
+    <sheet name="PDRC_RM" sheetId="1" r:id="rId5"/>
+    <sheet name="PDRC_PDM" sheetId="11" r:id="rId6"/>
+    <sheet name="PDRC_PGM" sheetId="10" r:id="rId7"/>
+    <sheet name="PDRC_PM" sheetId="9" r:id="rId8"/>
+    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId9"/>
+    <sheet name="ISBG_Project" sheetId="6" r:id="rId10"/>
+    <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId11"/>
+    <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId12"/>
+    <sheet name="PDRC_BSM_Dispatch" sheetId="12" r:id="rId13"/>
+    <sheet name="PDRC_B_ENPPRIZE" sheetId="14" r:id="rId14"/>
+    <sheet name="UsersTM_RM" sheetId="8" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">PDRC_B_ENPPRIZE!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">PDRC_BSM_Dispatch!$C$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">PDRC_B_ENPPRIZE!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">PDRC_BSM_Dispatch!$C$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="522">
   <si>
     <t>ID</t>
   </si>
@@ -1592,6 +1593,60 @@
   </si>
   <si>
     <t>bi99-6ce34925-0cce-4165-8589-6638d99f67ba</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>IsMenu</t>
+  </si>
+  <si>
+    <t>RC交付人员管理</t>
+  </si>
+  <si>
+    <t>/PDRC_StaffManage/List</t>
+  </si>
+  <si>
+    <t>BSM明细查询</t>
+  </si>
+  <si>
+    <t>/PDRC_BSMDetail/List</t>
+  </si>
+  <si>
+    <t>交付人员退出项目时间查询</t>
+  </si>
+  <si>
+    <t>/PDRC_OutProjectDate/List</t>
+  </si>
+  <si>
+    <t>RC综合报表</t>
+  </si>
+  <si>
+    <t>/PDRC_Report/RCComplexReport</t>
+  </si>
+  <si>
+    <t>项目BSM使用状况报表</t>
+  </si>
+  <si>
+    <t>/PDRC_ProjectBSMUsing/List</t>
+  </si>
+  <si>
+    <t>交付人员IDEL查询</t>
+  </si>
+  <si>
+    <t>/PDRC_IDEL/List</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1657,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,6 +1695,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1728,12 +1797,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,9 +1882,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2150,814 +2227,2328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="26">
+        <v>457</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="26">
+        <v>458</v>
+      </c>
+      <c r="E2" s="26">
+        <v>11</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="26">
+        <v>461</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="26">
+        <v>458</v>
+      </c>
+      <c r="E3" s="26">
+        <v>107</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="26">
+        <v>462</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="26">
+        <v>458</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
+        <v>469</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="26">
+        <v>458</v>
+      </c>
+      <c r="E5" s="26">
+        <v>9</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
+        <v>470</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="26">
+        <v>458</v>
+      </c>
+      <c r="E6" s="26">
+        <v>108</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="26">
+        <v>473</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="26">
+        <v>458</v>
+      </c>
+      <c r="E7" s="26">
+        <v>107</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>123</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
-        <v>123</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9">
-        <v>123</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10">
-        <v>123</v>
-      </c>
-      <c r="C10" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>123</v>
-      </c>
-      <c r="C11" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>413</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>123</v>
-      </c>
-      <c r="C12" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13">
-        <v>123</v>
-      </c>
-      <c r="C13" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
-        <v>123</v>
-      </c>
-      <c r="C14" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
-        <v>123</v>
-      </c>
-      <c r="C15" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16">
-        <v>123</v>
-      </c>
-      <c r="C16" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17">
-        <v>123</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18">
-        <v>123</v>
-      </c>
-      <c r="C18" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19">
-        <v>123</v>
-      </c>
-      <c r="C19" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20">
-        <v>123</v>
-      </c>
-      <c r="C20" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21">
-        <v>123</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22">
-        <v>123</v>
-      </c>
-      <c r="C22" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23">
-        <v>123</v>
-      </c>
-      <c r="C23" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>425</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24">
-        <v>123</v>
-      </c>
-      <c r="C24" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>427</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26">
-        <v>123</v>
-      </c>
-      <c r="C26" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27">
-        <v>123</v>
-      </c>
-      <c r="C27" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28">
-        <v>123</v>
-      </c>
-      <c r="C28" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30">
-        <v>123</v>
-      </c>
-      <c r="C30" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31">
-        <v>123</v>
-      </c>
-      <c r="C31" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32">
-        <v>123</v>
-      </c>
-      <c r="C32" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33">
-        <v>123</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34">
-        <v>123</v>
-      </c>
-      <c r="C34" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35">
-        <v>123</v>
-      </c>
-      <c r="C35" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37">
-        <v>123</v>
-      </c>
-      <c r="C37" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38">
-        <v>123</v>
-      </c>
-      <c r="C38" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>440</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>441</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40">
-        <v>123</v>
-      </c>
-      <c r="C40" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42">
-        <v>123</v>
-      </c>
-      <c r="C42" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43">
-        <v>123</v>
-      </c>
-      <c r="C43" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B44">
-        <v>123</v>
-      </c>
-      <c r="C44" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>447</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="E45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>449</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>450</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>451</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>452</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>453</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>455</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>456</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>457</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>458</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>459</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>460</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>462</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B45">
-        <v>123</v>
-      </c>
-      <c r="C45" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>465</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="E63" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>467</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>468</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>469</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>470</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>471</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>472</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>473</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>474</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>475</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>477</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>478</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>479</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>481</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>482</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>483</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B46">
-        <v>123</v>
-      </c>
-      <c r="C46" s="1">
-        <v>42454</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>485</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E83" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>486</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>487</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>488</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>489</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>490</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>491</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>492</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>493</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>494</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>495</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>497</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>498</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>499</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>501</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>502</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>503</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F1001">
-    <sortCondition ref="E1"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -2990,7 +4581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -3042,7 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -3087,7 +4678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -3120,7 +4711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P48"/>
   <sheetViews>
@@ -4078,6 +5669,815 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26">
+        <v>123</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30">
+        <v>123</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>123</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35">
+        <v>123</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>123</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38">
+        <v>123</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>123</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>123</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>123</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46">
+        <v>123</v>
+      </c>
+      <c r="C46" s="1">
+        <v>42454</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F1001">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4143,7 +6543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -4176,7 +6576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -4210,7 +6610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4246,7 +6646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4301,7 +6701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4389,7 +6789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
@@ -5459,2162 +7859,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="46" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>411</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>415</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>418</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>420</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>422</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>423</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>425</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>426</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>427</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>428</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>429</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>430</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>431</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>433</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>434</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>436</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>437</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>438</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>439</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>440</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>441</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>442</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>443</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>444</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>445</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>446</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>447</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>448</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>449</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>450</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>451</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>452</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>453</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>454</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>455</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>456</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>457</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>458</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>459</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>460</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>461</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>462</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>463</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>464</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>465</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>466</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>467</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>468</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>469</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>470</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>471</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>472</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>473</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>474</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>475</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>476</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>477</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>478</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>479</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>480</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>481</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>482</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>483</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>484</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>485</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>486</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>487</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>488</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>489</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>490</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>491</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>492</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>493</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>494</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>495</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>496</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>497</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="H95"/>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>498</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>499</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>500</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>501</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>502</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>503</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/code/java-web-demo/src/test/resources/Data11.xlsx
+++ b/code/java-web-demo/src/test/resources/Data11.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,32 +12,33 @@
     <workbookView xWindow="720" yWindow="405" windowWidth="26715" windowHeight="12660" tabRatio="655"/>
   </bookViews>
   <sheets>
-    <sheet name="T_MenuInfo" sheetId="16" r:id="rId1"/>
-    <sheet name="T_Users" sheetId="4" r:id="rId2"/>
-    <sheet name="PDRC_TM" sheetId="2" r:id="rId3"/>
-    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId4"/>
-    <sheet name="PDRC_RM" sheetId="1" r:id="rId5"/>
-    <sheet name="PDRC_PDM" sheetId="11" r:id="rId6"/>
-    <sheet name="PDRC_PGM" sheetId="10" r:id="rId7"/>
-    <sheet name="PDRC_PM" sheetId="9" r:id="rId8"/>
-    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId9"/>
-    <sheet name="ISBG_Project" sheetId="6" r:id="rId10"/>
-    <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId11"/>
-    <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId12"/>
-    <sheet name="PDRC_BSM_Dispatch" sheetId="12" r:id="rId13"/>
-    <sheet name="PDRC_B_ENPPRIZE" sheetId="14" r:id="rId14"/>
-    <sheet name="UsersTM_RM" sheetId="8" r:id="rId15"/>
+    <sheet name="PDRC_ProfileBaseInfo" sheetId="17" r:id="rId1"/>
+    <sheet name="T_MenuInfo" sheetId="16" r:id="rId2"/>
+    <sheet name="T_Users" sheetId="4" r:id="rId3"/>
+    <sheet name="PDRC_TM" sheetId="2" r:id="rId4"/>
+    <sheet name="PDRC_TM_SALARY" sheetId="7" r:id="rId5"/>
+    <sheet name="PDRC_RM" sheetId="1" r:id="rId6"/>
+    <sheet name="PDRC_PDM" sheetId="11" r:id="rId7"/>
+    <sheet name="PDRC_PGM" sheetId="10" r:id="rId8"/>
+    <sheet name="PDRC_PM" sheetId="9" r:id="rId9"/>
+    <sheet name="PDRC_StaffManage" sheetId="5" r:id="rId10"/>
+    <sheet name="ISBG_Project" sheetId="6" r:id="rId11"/>
+    <sheet name="ISBG_Project_Finish" sheetId="15" r:id="rId12"/>
+    <sheet name="ISBG_HumanMap" sheetId="13" r:id="rId13"/>
+    <sheet name="PDRC_BSM_Dispatch" sheetId="12" r:id="rId14"/>
+    <sheet name="PDRC_B_ENPPRIZE" sheetId="14" r:id="rId15"/>
+    <sheet name="UsersTM_RM" sheetId="8" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">PDRC_B_ENPPRIZE!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">PDRC_BSM_Dispatch!$C$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">PDRC_B_ENPPRIZE!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">PDRC_BSM_Dispatch!$C$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="533">
   <si>
     <t>ID</t>
   </si>
@@ -1647,6 +1648,39 @@
   </si>
   <si>
     <t>/PDRC_IDEL/List</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>ServiceYear</t>
+  </si>
+  <si>
+    <t>InBjcDate</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>GraduateDate</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>BaseBSM</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1837,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1887,6 +1921,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2227,170 +2264,1184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="27" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="26">
-        <v>457</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="D2" s="26">
-        <v>458</v>
-      </c>
-      <c r="E2" s="26">
-        <v>11</v>
-      </c>
-      <c r="F2" s="26">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
-        <v>461</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D3" s="26">
-        <v>458</v>
-      </c>
-      <c r="E3" s="26">
-        <v>107</v>
-      </c>
-      <c r="F3" s="26">
+      <c r="B1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="J1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="26">
-        <v>462</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D4" s="26">
-        <v>458</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="28">
+        <v>42558.462766203702</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="F4" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="26">
-        <v>469</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="26">
-        <v>458</v>
-      </c>
-      <c r="E5" s="26">
-        <v>9</v>
-      </c>
-      <c r="F5" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="26">
-        <v>470</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="26">
-        <v>458</v>
-      </c>
-      <c r="E6" s="26">
-        <v>108</v>
-      </c>
-      <c r="F6" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="26">
-        <v>473</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D7" s="26">
-        <v>458</v>
-      </c>
-      <c r="E7" s="26">
-        <v>107</v>
-      </c>
-      <c r="F7" s="26">
-        <v>1</v>
+      <c r="I2" s="28">
+        <v>42558.462766203702</v>
+      </c>
+      <c r="J2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H2" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I2" s="3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H3" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I3" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H4" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I4" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H5" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I5" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H6" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I6" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H7" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I7" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2.1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H8" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I8" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H9" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H10" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H11" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I11" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H12" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H13" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I13" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I14" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H15" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I15" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H16" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I16" s="3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H17" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H18" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I18" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H19" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I19" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H20" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I20" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H21" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I21" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H22" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H23" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I23" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H24" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I24" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H25" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I25" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I26" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1.4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H27" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I27" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H28" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I28" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H29" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I29" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H30" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I30" s="3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H31" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I31" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H32" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I32" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H33" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I33" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H34" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I34" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H35" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I35" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="23">
+        <v>2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>42461</v>
+      </c>
+      <c r="H36" s="5">
+        <v>42461</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
@@ -4548,7 +5599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -4581,7 +5632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -4633,7 +5684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -4678,7 +5729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -4711,7 +5762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P48"/>
   <sheetViews>
@@ -5669,6 +6720,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="26">
+        <v>457</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="26">
+        <v>458</v>
+      </c>
+      <c r="E2" s="26">
+        <v>11</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="26">
+        <v>461</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="26">
+        <v>458</v>
+      </c>
+      <c r="E3" s="26">
+        <v>107</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="26">
+        <v>462</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="26">
+        <v>458</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="26">
+        <v>469</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="26">
+        <v>458</v>
+      </c>
+      <c r="E5" s="26">
+        <v>9</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
+        <v>470</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="26">
+        <v>458</v>
+      </c>
+      <c r="E6" s="26">
+        <v>108</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="26">
+        <v>473</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="26">
+        <v>458</v>
+      </c>
+      <c r="E7" s="26">
+        <v>107</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6476,7 +7692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6543,7 +7759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -6576,7 +7792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -6610,7 +7826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -6646,7 +7862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -6701,7 +7917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6787,1076 +8003,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H2" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I2" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H3" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I3" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H4" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I4" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H5" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I5" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H6" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I6" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H7" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I7" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2.1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H8" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I8" s="3">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H9" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I9" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H10" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I10" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H11" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I11" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H12" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H13" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I13" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H14" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H15" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I15" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="23">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H16" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I16" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H17" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I17" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H18" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I18" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1.9</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H19" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I19" s="3">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H20" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I20" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H21" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I21" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H22" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H23" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I23" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H24" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I24" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H25" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I25" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="23">
-        <v>1.8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H26" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I26" s="3">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1.4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H27" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I27" s="3">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H28" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I28" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H29" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I29" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="23">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H30" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I30" s="3">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H31" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I31" s="3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1.7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H32" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I32" s="3">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H33" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I33" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="23">
-        <v>1.5</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H34" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I34" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="23">
-        <v>1.6</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H35" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I35" s="3">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="23">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="5">
-        <v>42461</v>
-      </c>
-      <c r="H36" s="5">
-        <v>42461</v>
-      </c>
-      <c r="I36" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>